--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31b96c9feace78f1/Formación/Programación/DB's/SQL Coderhouse/ZZ- Entregas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31b96c9feace78f1/Formación/Programación/DB's/SQL Coderhouse/ZZ- Entregas/ZZ- Proyecto final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="689" documentId="8_{C3DEE8FC-BFF7-4379-AA35-921F7F99D580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12B46A91-165E-47B5-8B2F-C755E3062192}"/>
+  <xr:revisionPtr revIDLastSave="787" documentId="8_{C3DEE8FC-BFF7-4379-AA35-921F7F99D580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9E77469-66BE-4344-B23D-C21315F4AAEF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{EA196DDA-EDCF-45CA-9CDD-BD20FD264D9D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="265">
   <si>
     <t>KEY</t>
   </si>
@@ -558,12 +558,6 @@
     <t>question_id</t>
   </si>
   <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>quizzes_answers_choices</t>
-  </si>
-  <si>
     <t>Id del alumno</t>
   </si>
   <si>
@@ -576,9 +570,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>All platform quizzes_answers_choices</t>
-  </si>
-  <si>
     <t>student_ quiz_responses</t>
   </si>
   <si>
@@ -733,6 +724,114 @@
   </si>
   <si>
     <t>Relationship Tables</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>All world countries</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>countries_subdivisions</t>
+  </si>
+  <si>
+    <t>All world countries subdivisions</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>INDEXED</t>
+  </si>
+  <si>
+    <t>Entity Tables</t>
+  </si>
+  <si>
+    <t>audits</t>
+  </si>
+  <si>
+    <t>All tables audits</t>
+  </si>
+  <si>
+    <t>quizzes_answers_options</t>
+  </si>
+  <si>
+    <t>All platform quizzes_answers_options</t>
+  </si>
+  <si>
+    <t>option_answer</t>
+  </si>
+  <si>
+    <t>id_log</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>entity_id</t>
+  </si>
+  <si>
+    <t>reg_action</t>
+  </si>
+  <si>
+    <t>action_dt</t>
+  </si>
+  <si>
+    <t>Id del log</t>
+  </si>
+  <si>
+    <t>Entidad / Tabla del log</t>
+  </si>
+  <si>
+    <t>Id en la tabla de la entidad</t>
+  </si>
+  <si>
+    <t>Tipo de acción en el registro</t>
+  </si>
+  <si>
+    <t>Datetime de la acción</t>
+  </si>
+  <si>
+    <t>Usuario que efectuó la acción</t>
+  </si>
+  <si>
+    <t>Código del País</t>
+  </si>
+  <si>
+    <t>Característica del País</t>
+  </si>
+  <si>
+    <t>Moneda del País</t>
+  </si>
+  <si>
+    <t>Nombre de la capital del País</t>
+  </si>
+  <si>
+    <t>Continente al que pertenece</t>
+  </si>
+  <si>
+    <t>Código de la Subdivisión</t>
+  </si>
+  <si>
+    <t>Tipo de subdivisión</t>
+  </si>
+  <si>
+    <t>action_by</t>
   </si>
 </sst>
 </file>
@@ -1166,16 +1265,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,20 +1298,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1357,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD41A3-B488-4DC5-B976-52F1D9DEE291}">
-  <dimension ref="B1:L116"/>
+  <dimension ref="B1:L145"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView view="pageLayout" topLeftCell="A119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,31 +1676,26 @@
     <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="27" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -1615,91 +1705,79 @@
       <c r="I3" s="27"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -1714,62 +1792,53 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="3">
-        <v>50</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>20</v>
@@ -1782,530 +1851,534 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
+      <c r="C16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>155</v>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
       <c r="F18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="6">
         <v>50</v>
       </c>
-      <c r="F19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3">
-        <v>50</v>
-      </c>
-      <c r="F20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4" t="s">
-        <v>29</v>
+      <c r="F19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="L21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3">
-        <v>50</v>
-      </c>
-      <c r="F22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="3">
-        <v>50</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4" t="s">
-        <v>31</v>
+      <c r="B23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3">
+        <v>50</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3">
+        <v>50</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="11" t="s">
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="12">
-        <v>50</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18" t="s">
+    <row r="33" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B31" s="19" t="s">
+      <c r="C34" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="8" t="s">
+      <c r="C35" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J36" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
+      <c r="L36" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="3">
-        <v>50</v>
-      </c>
-      <c r="F34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="3">
-        <v>50</v>
-      </c>
-      <c r="F35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="3">
-        <v>50</v>
-      </c>
+      <c r="E37" s="3"/>
       <c r="F37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="2"/>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>20</v>
@@ -2313,42 +2386,44 @@
       <c r="E38" s="3">
         <v>50</v>
       </c>
-      <c r="F38" s="3"/>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="2"/>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="3">
-        <v>15</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F39" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2356,759 +2431,798 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="3">
+        <v>50</v>
+      </c>
+      <c r="F41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="3">
+        <v>50</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="11" t="s">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E46" s="12">
         <v>50</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="5"/>
-      <c r="C43" s="6" t="s">
+    <row r="47" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="7" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="18" t="s">
+    <row r="48" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="19" t="s">
+      <c r="C49" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="8" t="s">
+      <c r="C50" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J51" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B48" s="2" t="s">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-      <c r="C49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3">
-        <v>50</v>
-      </c>
-      <c r="F49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-      <c r="C50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="C51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
-      <c r="C52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3"/>
       <c r="J52" s="4" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53" s="2"/>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E53" s="3">
+        <v>50</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="5"/>
-      <c r="C54" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="6">
-        <v>300</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-    </row>
-    <row r="56" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
+      <c r="E54" s="3">
+        <v>50</v>
+      </c>
+      <c r="F54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="3">
+        <v>50</v>
+      </c>
+      <c r="F56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="28"/>
-      <c r="L57" s="20" t="s">
-        <v>10</v>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3">
+        <v>50</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B58" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>73</v>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="3">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L59" s="20" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="12">
         <v>50</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="3">
-        <v>50</v>
-      </c>
-      <c r="F60" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B61" s="2"/>
-      <c r="C61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L61" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B62" s="2"/>
-      <c r="C62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B63" s="2"/>
-      <c r="C63" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B64" s="2"/>
-      <c r="C64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="2"/>
-      <c r="C65" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="2"/>
-      <c r="C66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="2"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="5"/>
+      <c r="C62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B65" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J67" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="2"/>
       <c r="C68" s="3" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E68" s="3">
+        <v>50</v>
+      </c>
+      <c r="F68" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="3" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J69" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L69" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="2"/>
       <c r="C70" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
+      <c r="F70" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L70" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" s="2"/>
       <c r="C71" s="3" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="16" t="s">
-        <v>108</v>
+      <c r="E71" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="2"/>
       <c r="C72" s="3" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="J72" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="5"/>
+      <c r="C73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="6">
+        <v>300</v>
+      </c>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+    </row>
+    <row r="75" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+      <c r="L76" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="5"/>
-      <c r="C75" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="E78" s="3"/>
+      <c r="F78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="J78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="6">
-        <v>300</v>
-      </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="E79" s="3">
+        <v>50</v>
+      </c>
+      <c r="F79" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B80" s="2"/>
       <c r="C80" s="3" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E80" s="3"/>
-      <c r="F80" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="4" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="L80" s="20" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81" s="2"/>
       <c r="C81" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="3">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3" t="b">
         <v>1</v>
       </c>
@@ -3116,399 +3230,377 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L81" s="20" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82" s="2"/>
       <c r="C82" s="3" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E82" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
-      <c r="J82" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L82" s="20" t="s">
-        <v>134</v>
-      </c>
+      <c r="J82" s="4"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83" s="2"/>
       <c r="C83" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E83" s="3"/>
-      <c r="F83" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
-      <c r="J83" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J83" s="4"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B84" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B84" s="2"/>
       <c r="C84" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
-      <c r="J84" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="J84" s="4"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85" s="2"/>
       <c r="C85" s="3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="5"/>
-      <c r="C86" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="6">
-        <v>300</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="88" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B86" s="2"/>
+      <c r="C86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B87" s="2"/>
+      <c r="C87" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B88" s="2"/>
+      <c r="C88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B89" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="4"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B90" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B91" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G91" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B92" s="2"/>
-      <c r="C92" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="3">
-        <v>50</v>
-      </c>
-      <c r="F92" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="4" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93" s="2"/>
       <c r="C93" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
+      <c r="I93" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J93" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="5"/>
+      <c r="C94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="6">
+        <v>300</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="96" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="28"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B97" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B98" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3"/>
+      <c r="J99" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="3">
+        <v>50</v>
+      </c>
+      <c r="F100" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L100" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="L93" s="20" t="s">
+      <c r="L101" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B94" s="2"/>
-      <c r="C94" s="3" t="s">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B102" s="2"/>
+      <c r="C102" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B95" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B96" s="2"/>
-      <c r="C96" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="5"/>
-      <c r="C97" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="21">
-        <v>300</v>
-      </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="99" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B100" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="28"/>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B101" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I101" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G102" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="4" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.35">
@@ -3516,224 +3608,216 @@
         <v>18</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L103" s="20" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B104" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B104" s="2"/>
       <c r="C104" s="3" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J104" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L104" s="20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
-      <c r="C105" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="5"/>
+      <c r="C105" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="6">
         <v>300</v>
       </c>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
-      <c r="C106" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="3" t="s">
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="107" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="27"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="28"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B108" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="26"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="3">
+        <v>50</v>
+      </c>
+      <c r="F111" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B112" s="2"/>
+      <c r="C112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B107" s="2"/>
-      <c r="C107" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E107" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="5"/>
-      <c r="C108" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="6">
-        <v>200</v>
-      </c>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="110" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B111" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="28"/>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B112" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I112" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J112" s="10" t="s">
-        <v>6</v>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L112" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B113" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="3" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G113" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L113" s="20" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C114" s="3" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E114" s="3">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E114" s="3"/>
       <c r="F114" s="3" t="b">
         <v>1</v>
       </c>
@@ -3741,54 +3825,599 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="5"/>
-      <c r="C115" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="5"/>
+      <c r="C116" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="21">
+        <v>300</v>
+      </c>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="118" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="28"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="26"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B120" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J120" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L122" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L123" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B124" s="2"/>
+      <c r="C124" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" s="3">
+        <v>300</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B125" s="2"/>
+      <c r="C125" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B126" s="2"/>
+      <c r="C126" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="5"/>
+      <c r="C127" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" s="6">
+        <v>200</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="129" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="28"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B130" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="26"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B131" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L132" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B133" s="2"/>
+      <c r="C133" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="3">
+        <v>100</v>
+      </c>
+      <c r="F133" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="5"/>
+      <c r="C134" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="6">
+        <v>200</v>
+      </c>
+      <c r="F134" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D115" s="6" t="s">
+    </row>
+    <row r="135" spans="2:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="136" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="28"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B137" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="26"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B138" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J138" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B140" s="2"/>
+      <c r="C140" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="6">
-        <v>200</v>
-      </c>
-      <c r="F115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="E140" s="3">
+        <v>50</v>
+      </c>
+      <c r="F140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B141" s="11"/>
+      <c r="C141" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B142" s="11"/>
+      <c r="C142" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" s="12">
+        <v>20</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B143" s="11"/>
+      <c r="C143" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B144" s="5"/>
+      <c r="C144" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" s="6">
+        <v>100</v>
+      </c>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C111:J111"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C99:J99"/>
-    <mergeCell ref="C100:J100"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C110:J110"/>
-    <mergeCell ref="C2:J2"/>
+  <mergeCells count="25">
+    <mergeCell ref="C136:J136"/>
+    <mergeCell ref="C137:J137"/>
     <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="C57:J57"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C130:J130"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C118:J118"/>
+    <mergeCell ref="C119:J119"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="C129:J129"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1:J86 B88:J97 B99:J119 B234:J1048576">
+  <conditionalFormatting sqref="B107:J116 B256:J1048576 B2:J105 B118:J144">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"FK"</formula>
     </cfRule>
@@ -3808,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18357EAD-D36B-4BAC-B1F2-868E784ED3DF}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3824,62 +4453,61 @@
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+    <row r="1" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="C4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
@@ -3932,7 +4560,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3992,31 +4620,31 @@
       <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
@@ -4069,7 +4697,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4111,19 +4739,19 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F17" s="6" t="b">
         <v>1</v>
@@ -4132,7 +4760,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4140,31 +4768,31 @@
       <c r="B19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="C19" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="C20" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
@@ -4217,7 +4845,7 @@
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4263,13 +4891,13 @@
     <row r="25" spans="2:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F25" s="6" t="b">
         <v>1</v>
@@ -4278,7 +4906,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4286,31 +4914,31 @@
       <c r="B27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
+      <c r="C28" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
@@ -4363,7 +4991,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4413,13 +5041,13 @@
     <row r="33" spans="2:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F33" s="6" t="b">
         <v>1</v>
@@ -4428,7 +5056,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4436,31 +5064,31 @@
       <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="34"/>
+      <c r="C35" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
+      <c r="C36" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
@@ -4513,7 +5141,7 @@
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4561,13 +5189,13 @@
     <row r="41" spans="2:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="5"/>
       <c r="C41" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F41" s="6" t="b">
         <v>1</v>
@@ -4576,7 +5204,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -4584,31 +5212,31 @@
       <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="C43" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B44" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+      <c r="C44" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
@@ -4661,7 +5289,7 @@
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4669,7 +5297,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>19</v>
@@ -4711,31 +5339,31 @@
       <c r="B50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="35"/>
     </row>
     <row r="52" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
@@ -4962,31 +5590,31 @@
       <c r="B63" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
     </row>
     <row r="64" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="8" t="s">
@@ -5191,31 +5819,31 @@
       <c r="B75" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
     </row>
     <row r="76" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B76" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="8" t="s">
@@ -5421,31 +6049,31 @@
       <c r="B88" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
     </row>
     <row r="89" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="28"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
@@ -5501,7 +6129,7 @@
         <v>166</v>
       </c>
       <c r="L91" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5509,7 +6137,7 @@
         <v>18</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>19</v>
@@ -5570,7 +6198,7 @@
     <row r="95" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>20</v>
@@ -5603,31 +6231,31 @@
       <c r="B97" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="C97" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="28"/>
     </row>
     <row r="98" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="28"/>
+      <c r="C98" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B99" s="8" t="s">
@@ -5658,7 +6286,7 @@
         <v>6</v>
       </c>
       <c r="L99" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5697,9 +6325,7 @@
         <v>19</v>
       </c>
       <c r="E101" s="3"/>
-      <c r="F101" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -5710,7 +6336,7 @@
     <row r="102" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>20</v>
@@ -5725,7 +6351,7 @@
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="2:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5735,31 +6361,31 @@
       <c r="B104" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="26"/>
+      <c r="C104" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="28"/>
     </row>
     <row r="105" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="28"/>
+      <c r="C105" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="26"/>
     </row>
     <row r="106" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
@@ -5812,7 +6438,7 @@
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L107" s="20" t="s">
         <v>136</v>
@@ -5836,10 +6462,10 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L108" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5847,7 +6473,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>19</v>
@@ -5860,13 +6486,13 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>41</v>
@@ -5879,7 +6505,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="2:12" s="1" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -5887,31 +6513,31 @@
       <c r="B112" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C112" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="C112" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="28"/>
     </row>
     <row r="113" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B113" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="28"/>
+      <c r="C113" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="26"/>
     </row>
     <row r="114" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B114" s="8" t="s">
@@ -5964,10 +6590,10 @@
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L115" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5975,7 +6601,7 @@
         <v>18</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>19</v>
@@ -5988,10 +6614,10 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L116" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5999,7 +6625,7 @@
         <v>18</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>19</v>
@@ -6012,13 +6638,13 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="118" spans="2:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>20</v>
@@ -6033,19 +6659,16 @@
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="2:12" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="B1:J2"/>
     <mergeCell ref="C105:J105"/>
     <mergeCell ref="C112:J112"/>
     <mergeCell ref="C113:J113"/>
@@ -6054,6 +6677,12 @@
     <mergeCell ref="C97:J97"/>
     <mergeCell ref="C98:J98"/>
     <mergeCell ref="C104:J104"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="C64:J64"/>
     <mergeCell ref="C43:J43"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="C35:J35"/>
@@ -6063,9 +6692,6 @@
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C36:J36"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:J48 B50:J119">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
